--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220522_110301.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220522_110301.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>해외</t>
@@ -1925,7 +1922,7 @@
         <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
         <v>236</v>
@@ -1977,7 +1974,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
         <v>236</v>
@@ -2003,7 +2000,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
         <v>236</v>
@@ -2081,7 +2078,7 @@
         <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H36" t="s">
         <v>236</v>
@@ -2107,7 +2104,7 @@
         <v>182</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
         <v>236</v>
@@ -2185,7 +2182,7 @@
         <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
         <v>236</v>
@@ -2237,7 +2234,7 @@
         <v>185</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
         <v>236</v>
@@ -2315,7 +2312,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
         <v>236</v>
@@ -2341,7 +2338,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
         <v>236</v>
@@ -2367,7 +2364,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
         <v>236</v>
@@ -2393,7 +2390,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
         <v>236</v>
@@ -2419,7 +2416,7 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
         <v>236</v>
@@ -2445,7 +2442,7 @@
         <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
         <v>236</v>
@@ -2497,7 +2494,7 @@
         <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H52" t="s">
         <v>236</v>
@@ -2549,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
         <v>236</v>
@@ -2575,10 +2572,10 @@
         <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
         <v>236</v>
@@ -2653,7 +2650,7 @@
         <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
         <v>236</v>
@@ -2679,7 +2676,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H59" t="s">
         <v>236</v>
@@ -2705,7 +2702,7 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
         <v>236</v>
@@ -2731,10 +2728,10 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H62" t="s">
         <v>236</v>
@@ -2783,7 +2780,7 @@
         <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H63" t="s">
         <v>236</v>
@@ -2835,10 +2832,10 @@
         <v>196</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
         <v>236</v>
@@ -2939,7 +2936,7 @@
         <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
         <v>236</v>
@@ -3017,7 +3014,7 @@
         <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
         <v>236</v>
@@ -3043,7 +3040,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H73" t="s">
         <v>236</v>
@@ -3069,7 +3066,7 @@
         <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>236</v>
@@ -3095,7 +3092,7 @@
         <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
         <v>236</v>
@@ -3121,7 +3118,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H76" t="s">
         <v>236</v>
@@ -3147,7 +3144,7 @@
         <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H77" t="s">
         <v>236</v>
@@ -3173,7 +3170,7 @@
         <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>236</v>
@@ -3225,7 +3222,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
         <v>236</v>
@@ -3251,7 +3248,7 @@
         <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>236</v>
@@ -3277,7 +3274,7 @@
         <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H82" t="s">
         <v>236</v>
@@ -3303,7 +3300,7 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H83" t="s">
         <v>236</v>
@@ -3329,7 +3326,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H84" t="s">
         <v>236</v>
@@ -3407,7 +3404,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H87" t="s">
         <v>236</v>
@@ -3433,7 +3430,7 @@
         <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H88" t="s">
         <v>236</v>
@@ -3459,7 +3456,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H89" t="s">
         <v>236</v>
@@ -3485,10 +3482,10 @@
         <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3511,7 +3508,7 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H91" t="s">
         <v>236</v>
@@ -3589,7 +3586,7 @@
         <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
         <v>236</v>
@@ -3615,7 +3612,7 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H95" t="s">
         <v>236</v>
@@ -3641,7 +3638,7 @@
         <v>219</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" t="s">
         <v>236</v>
@@ -3693,7 +3690,7 @@
         <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H98" t="s">
         <v>236</v>
@@ -3719,7 +3716,7 @@
         <v>186</v>
       </c>
       <c r="G99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H99" t="s">
         <v>236</v>
@@ -3771,7 +3768,7 @@
         <v>223</v>
       </c>
       <c r="G101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H101" t="s">
         <v>236</v>
